--- a/奨学金/吉田奨学金/成績係数.xlsx
+++ b/奨学金/吉田奨学金/成績係数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiramatsu_kagawalab/Documents/GitManagedProjects-Kagawalab/奨学金/吉田奨学金/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9183A24-5B25-3F4F-ADAC-848AA8AB286F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C33A56BE-D471-684A-A436-9015DA014D16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8580" yWindow="2160" windowWidth="17740" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">提出用!$A$1:$P$35</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -618,13 +619,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>トウダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大学院</t>
-    <rPh sb="0" eb="3">
-      <t>ダイガクイン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -968,8 +962,50 @@
   </si>
   <si>
     <t>工学部 物理工学科</t>
-    <rPh sb="0" eb="17">
+    <rPh sb="0" eb="9">
       <t>コウガクブガクブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高等専門学校</t>
+    <rPh sb="0" eb="2">
+      <t>コウトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>富山高等専門学校</t>
+    <rPh sb="0" eb="2">
+      <t>トヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>研究インターン</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気制御システム工学科</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気情報工学科</t>
+    <rPh sb="0" eb="1">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rice大学</t>
+    <rPh sb="0" eb="11">
+      <t>ダイガクイン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1354,6 +1390,14 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1397,10 +1441,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1435,10 +1475,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2137,8 +2173,8 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="116" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="116" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2152,68 +2188,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="19" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B1" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="B1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" spans="1:16" s="19" customFormat="1" ht="18.75" customHeight="1"/>
     <row r="3" spans="1:16" s="19" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="69"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:16" s="19" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="39"/>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="38"/>
       <c r="O4" s="39"/>
@@ -2221,22 +2257,22 @@
     <row r="5" spans="1:16" s="19" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:16" s="19" customFormat="1" ht="57.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
+      <c r="B6" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" ht="20.25" customHeight="1">
@@ -2259,18 +2295,18 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" ht="22.5" customHeight="1">
       <c r="B8" s="36" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="41" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="H8" s="43"/>
       <c r="I8" s="41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
@@ -2281,18 +2317,18 @@
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" ht="22.5" customHeight="1">
       <c r="B9" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
       <c r="E9" s="41" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="43"/>
       <c r="I9" s="41" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
@@ -2303,18 +2339,18 @@
     </row>
     <row r="10" spans="1:16" s="19" customFormat="1" ht="24" customHeight="1">
       <c r="B10" s="36" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="41" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="43"/>
       <c r="I10" s="41" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -2340,42 +2376,42 @@
       <c r="O11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="55.5" customHeight="1">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="52" t="s">
+      <c r="H12" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:16" s="7" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="14" t="s">
         <v>36</v>
       </c>
@@ -2608,12 +2644,12 @@
       <c r="K18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="L18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
     </row>
     <row r="19" spans="2:16" ht="18.75" customHeight="1">
       <c r="B19" s="4"/>
@@ -2662,69 +2698,69 @@
     </row>
     <row r="21" spans="2:16" ht="18" customHeight="1">
       <c r="G21" s="2"/>
-      <c r="H21" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
+      <c r="H21" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="67">
         <f>L19/H19</f>
         <v>2.1022099447513813</v>
       </c>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
     </row>
     <row r="22" spans="2:16" ht="18" customHeight="1">
       <c r="G22" s="2"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="66" t="e">
+      <c r="M22" s="67" t="e">
         <f>M19/I19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
     </row>
     <row r="23" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="G23" s="2"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="66" t="e">
+      <c r="M23" s="67" t="e">
         <f>N19/J19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
     </row>
     <row r="24" spans="2:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="G24" s="7"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
       <c r="L24" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="68">
         <f>O19/K19</f>
         <v>2.1022099447513813</v>
       </c>
-      <c r="N24" s="67"/>
-      <c r="O24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="69"/>
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="2:16" ht="29.25" customHeight="1">
@@ -2732,39 +2768,39 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:16" ht="17.25" customHeight="1">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1">
-      <c r="B27" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
+      <c r="B27" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
     </row>
     <row r="28" spans="2:16" ht="18" customHeight="1">
       <c r="B28" s="5" t="s">
@@ -2804,7 +2840,7 @@
     </row>
     <row r="30" spans="2:16" ht="18" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2822,7 +2858,7 @@
     </row>
     <row r="31" spans="2:16" ht="18" customHeight="1">
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2857,41 +2893,41 @@
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="2:15" ht="36" customHeight="1">
-      <c r="B33" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
+      <c r="B33" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="2:15" ht="12.75" customHeight="1"/>
     <row r="35" spans="2:15" ht="68.25" customHeight="1">
-      <c r="B35" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
+      <c r="B35" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
     </row>
   </sheetData>
   <sheetProtection password="CA62" sheet="1" formatCells="0" insertRows="0"/>
@@ -2966,22 +3002,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="38.25" customHeight="1">
-      <c r="B1" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="B1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" spans="2:15" ht="18.75" customHeight="1"/>
     <row r="3" spans="2:15" ht="24.75" customHeight="1">
@@ -3034,22 +3070,22 @@
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1"/>
     <row r="6" spans="2:15" ht="57.75" customHeight="1">
-      <c r="B6" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
+      <c r="B6" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="2:15" ht="20.25" customHeight="1">
       <c r="B7" s="83" t="s">
@@ -3162,12 +3198,12 @@
       <c r="G12" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="H12" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="81" t="s">
         <v>9</v>
       </c>
@@ -3223,7 +3259,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="18">
         <v>3</v>
@@ -3430,12 +3466,12 @@
       <c r="K18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="L18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
     </row>
     <row r="19" spans="2:16" ht="18.75" customHeight="1">
       <c r="B19" s="23"/>
@@ -3594,32 +3630,32 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:16" ht="17.25" customHeight="1">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
     </row>
     <row r="28" spans="2:16" ht="18" customHeight="1">
       <c r="B28" s="5" t="s">
@@ -3694,41 +3730,41 @@
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="2:16" ht="36" customHeight="1">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="2:15" ht="12.75" customHeight="1"/>
     <row r="34" spans="2:15" ht="68.25" customHeight="1">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
